--- a/database.xlsx
+++ b/database.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1468"/>
+  <dimension ref="A1:K1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51733,6 +51733,6306 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1469">
+      <c r="A1469" t="n">
+        <v>0.1096059113300492</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>0.08990147783251223</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>0.1133004926108374</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>0.2524630541871922</v>
+      </c>
+      <c r="F1469" t="n">
+        <v>0.6194581280788178</v>
+      </c>
+      <c r="G1469" t="n">
+        <v>0.1366995073891626</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>0.4963054187192117</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>0.8793103448275863</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>1.802592510718277</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="n">
+        <v>0.0265151515151516</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>0.06565656565656575</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>0.4204545454545454</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>0.148989898989899</v>
+      </c>
+      <c r="F1470" t="n">
+        <v>0.1603535353535352</v>
+      </c>
+      <c r="G1470" t="n">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>0.3396464646464648</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>0.196969696969697</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>1.672654649526265</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>0.251918158567775</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>0.5166240409207161</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>0.4501278772378516</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>0.1112531969309463</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>0.2301790281329923</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>0.1828644501278773</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>0.03708439897698201</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>0.05754475703324813</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>1.400966394306604</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>0.1456043956043955</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>0.1016483516483517</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>0.206043956043956</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>0.07005494505494503</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>0.2266483516483517</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>0.4313186813186813</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>0.07967032967032961</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>0.2005494505494505</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>1.230865921473424</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>0.0376344086021505</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>0.07795698924731176</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>0.081989247311828</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>0.1451612903225807</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>0.4946236559139785</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>0.1155913978494623</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>0.325268817204301</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>0.946236559139785</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>1.710454754600305</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>0.1585956416464891</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>0.4031476997578693</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>0.1997578692493946</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>0.3099273607748183</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>0.2372881355932204</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>0.1682808716707023</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>0.1876513317191284</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>0.1549636803874093</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>1.369072555650382</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>0.6605113636363635</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>0.1676136363636365</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>0.07528409090909083</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>0.04545454545454541</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>0.140625</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>0.09232954545454541</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>0.1306818181818181</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>1.38088508848602</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>0.2786697247706422</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>0.8119266055045871</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>0.551605504587156</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>0.3761467889908257</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>0.8841743119266054</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>0.6490825688073394</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>0.1685779816513762</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>0.1571100917431192</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>1.940799144895236</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="n">
+        <v>0.07012195121951215</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>0.02591463414634143</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>0.4588414634146341</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>0.288109756097561</v>
+      </c>
+      <c r="F1477" t="n">
+        <v>0.163109756097561</v>
+      </c>
+      <c r="G1477" t="n">
+        <v>0.7911585365853659</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>0.5228658536585367</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>0.2759146341463414</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>1.387972608187402</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="n">
+        <v>0.7125171939477304</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>0.2737276478679505</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>0.05089408528198081</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>0.08528198074277848</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>0.06464924346629997</v>
+      </c>
+      <c r="F1478" t="n">
+        <v>0.08665749656121036</v>
+      </c>
+      <c r="G1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>0.009628610729023324</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>0.08940852819807432</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>1.470660338036865</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="n">
+        <v>0.01146496815286624</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>0.001273885350318471</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>0.1057324840764331</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>0.3095541401273885</v>
+      </c>
+      <c r="F1479" t="n">
+        <v>0.3923566878980891</v>
+      </c>
+      <c r="G1479" t="n">
+        <v>0.1528662420382165</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>0.3528662420382165</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>0.5783439490445861</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>1.463572818335482</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="n">
+        <v>0.5071022727272727</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>0.2301136363636365</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>0.1860795454545454</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>0.1775568181818181</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>0.1661931818181819</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>0.1164772727272727</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>0.01988636363636354</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>1.253309733861135</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>0.01253132832080195</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>0.2506265664160401</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>0.07769423558897248</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>0.1165413533834587</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>0.1528822055137844</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>0.4072681704260652</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>0.4661654135338347</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>0.1190476190476191</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>1.382066341769584</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="n">
+        <v>0.01412066752246477</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>0.03979460847240057</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>0.02439024390243905</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>0.2490372272143775</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>0.1514762516046213</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>0.2811296534017971</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>0.5776636713735559</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>1.451760285499845</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="n">
+        <v>0.07611548556430447</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>0.02362204724409445</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>0.003937007874015741</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>0.321522309711286</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>0.01443569553805779</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>0.001312335958005173</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>0.4540682414698163</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>0.03149606299212593</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>1.308828638188631</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="n">
+        <v>0.3683492496589358</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>1.035470668485675</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>0.4474761255115962</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>0.1282401091405183</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>0.7421555252387448</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>0.5402455661664394</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>0.07094133697135052</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>0.09959072305593453</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>1.76242989907711</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="n">
+        <v>0.05462653288740249</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>0.2831661092530657</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>0.5273132664437012</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>0.0858416945373468</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>0.3935340022296545</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>0.3088071348940915</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>0.02229654403567438</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>0.1371237458193979</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>1.618316998482333</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="n">
+        <v>0.4748677248677249</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>0.04894179894179884</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>0.05158730158730163</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>0.07407407407407418</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>0.0992063492063493</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>0.1283068783068784</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>0.09126984126984117</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>1.317097411173577</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="n">
+        <v>0.08531994981179425</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>0.05269761606022594</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>0.05395232120451698</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>0.2509410288582183</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>0.9435382685069009</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>0.6712672521957339</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>1.42534504391468</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>2.283362597128722</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="n">
+        <v>0.226123595505618</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>0.2134831460674158</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>0.0969101123595506</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>0.4634831460674158</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>0.1825842696629214</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>0.023876404494382</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>0.699438202247191</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>0.2921348314606742</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>1.429316473112134</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="n">
+        <v>0.3567567567567567</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>0.1918918918918919</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>0.07702702702702702</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>0.1635135135135135</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>0.3527027027027028</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>0.2040540540540541</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>0.09324324324324329</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>0.03918918918918912</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1.185978296698002</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="n">
+        <v>0.01377118644067798</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>0.3273305084745763</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>0.236228813559322</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>0.02754237288135597</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>0.7266949152542372</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>0.5985169491525424</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>0.2648305084745763</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>0.09427966101694918</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>1.925442852208907</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="n">
+        <v>0.3456647398843931</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>0.4924855491329481</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>0.1040462427745665</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>0.561849710982659</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>0.6716763005780346</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>0.07861271676300574</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>0.3364161849710983</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>0.608092485549133</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>1.708092248033177</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>0.4088397790055249</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>0.6270718232044199</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>0.00966850828729271</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>0.1685082872928176</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>0.2279005524861879</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>0.06629834254143652</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>0.1339779005524862</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>0.1740331491712708</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>1.391516368038094</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>0.2522179974651457</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>0.6337135614702154</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>0.08111533586818753</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>0.1698352344740177</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>0.4803548795944232</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>0.05703422053231932</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>0.1013941698352345</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>0.211660329531052</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>1.522635482513669</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>0.05988023952095811</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>0.01676646706586826</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>0.0862275449101797</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>0.1005988023952096</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>0.07425149700598799</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>0.1532934131736527</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>0.4047904191616767</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>0.1856287425149701</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>1.385610101620275</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>0.2502937720329024</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>0.3842538190364277</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>0.226792009400705</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>0.1668625146886016</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>0.190364277320799</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>0.05522914218566388</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>0.03877790834312567</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>0.03877790834312567</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>1.391516368038094</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>0.02320185614849191</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>0.09512761020881677</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>0.00348027842227383</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>0.1067285382830627</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>0.2830626450116009</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>0.05684454756380508</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>0.122969837587007</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>0.160092807424594</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>1.306466131621504</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>0.1929625425652668</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>0.2360953461975028</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>0.09875141884222471</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>0.2531214528944381</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>0.3847900113507379</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>0.04313280363223604</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>0.2054483541430192</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>0.2349602724177071</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>1.441129005947771</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>0.1171067738231917</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>0.09873708381171076</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>0.08610792192881744</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>0.4110218140068886</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>0.2468427095292767</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>0.4489092996555684</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>0.2996555683122848</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>0.0298507462686568</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>1.490741643857448</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>0.006009615384615419</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>0.02884615384615374</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>0.1586538461538463</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>0.7632211538461537</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>0.5024038461538463</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>0.3545673076923077</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>0.8028846153846154</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>0.3581730769230769</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>1.77187992534562</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>0.0221932114882506</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>0.03133159268929497</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>0.08224543080939939</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>0.09399477806788514</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>0.1827676240208878</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>0.1344647519582245</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>0.2075718015665797</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>0.4843342036553524</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>1.34308498341198</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>0.06762028608582571</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>0.1222366710013003</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>0.2743823146944082</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>0.1430429128738622</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>0.1326397919375812</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>0.4928478543563068</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>0.1833550065019507</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>0.1495448634590377</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>1.356078769531181</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>0.02439024390243905</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>0.3101045296167246</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>0.1660859465737514</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>0.05458768873403019</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>0.397212543554007</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>0.1660859465737514</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>0.2659698025551684</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>0.07200929152148672</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>1.421047700127187</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>0.1239804241435563</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>0.3344208809135401</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>0.1435562805872757</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>0.2381729200652529</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0.2822185970636215</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>0.4812398042414356</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>0.7895595432300162</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>0.4600326264274062</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>1.29583485206943</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>0.003826530612244916</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>0.1900510204081634</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>0.7066326530612246</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>0.1135204081632653</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0.5599489795918366</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>0.08418367346938771</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>0.1160714285714286</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>0.4400510204081634</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>1.580516893408293</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>0.6564277588168372</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>0.2275312855517633</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>0.02389078498293506</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0.4459613196814562</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>0.2605233219567691</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.02389078498293506</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0.3720136518771331</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>0.1365187713310581</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>1.719904780868815</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>0.3202328966521106</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>0.4294032023289664</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>0.4483260553129549</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>0.1673944687045124</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>0.05967976710334799</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.1761280931586608</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>0.001455604075691452</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>0.1382823871906842</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>1.175347017145928</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>0.03156565656565657</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>0.1452020202020201</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>0.5467171717171717</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>0.1388888888888888</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>0.1578282828282829</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>0.981060606060606</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>0.1351010101010102</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>0.3156565656565657</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>1.853386401911518</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>0.7051129607609987</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>0.8787158145065399</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>0.05945303210463737</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>1.222354340071344</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>0.55410225921522</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>0.08442330558858502</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>0.140309155766944</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>0.0570749108204518</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>2.207762386980642</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>0.01648998822143688</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>0.3769140164899882</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>0.03533568904593642</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>0.2991755005889281</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>0.8998822143698468</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>0.01413427561837466</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>0.07656065959952896</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>0.6395759717314489</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>1.905361546388323</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>0.7487684729064039</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>0.6724137931034482</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>0.06403940886699511</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>0.7068965517241379</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>0.6157635467980296</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>0.3091133004926108</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>0.09852216748768483</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>2.055380713400919</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>0.1088435374149659</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>0.2190476190476192</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>0.02312925170068025</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>0.129251700680272</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>0.2816326530612245</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>0.07619047619047614</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>0.09795918367346945</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>1.39978514102304</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>0.05644171779141094</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>0.1889570552147239</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>0.1705521472392637</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>0.2920245398773007</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>0.3975460122699386</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>0.2024539877300613</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>0.1558282208588957</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>0.169325153374233</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>1.345447489979107</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="n">
+        <v>0.06413612565445037</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>0.04712041884816753</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>0.08638743455497377</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>0.1767015706806283</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>0.1439790575916231</v>
+      </c>
+      <c r="F1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1513" t="n">
+        <v>0.5484293193717278</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>0.1465968586387434</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>0.03403141361256545</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>1.397422634455912</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>0.1228070175438596</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>0.2406015037593985</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>0.1641604010025062</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>0.3220551378446115</v>
+      </c>
+      <c r="F1514" t="n">
+        <v>0.3270676691729324</v>
+      </c>
+      <c r="G1514" t="n">
+        <v>0.04887218045112784</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>0.04385964912280693</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>1.250947227294008</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>0.03254769921436584</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>0.08866442199775526</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>0.021324354657688</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>0.1604938271604939</v>
+      </c>
+      <c r="F1515" t="n">
+        <v>0.2323232323232323</v>
+      </c>
+      <c r="G1515" t="n">
+        <v>0.122334455667789</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>0.691358024691358</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>0.8855218855218856</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>1.984505516387094</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="n">
+        <v>0.03990024937655856</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>0.04239401496259343</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>0.08728179551122195</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>0.04738154613466339</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>0.1134663341645885</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>0.4476309226932669</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0.8678304239401495</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>0.42643391521197</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>1.769517418778492</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>0.08030803080308035</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>0.2200220022002199</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>0.0770077007700769</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>0.130913091309131</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>0.2233223322332234</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>0.1485148514851484</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0.1848184818481848</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>0.09570957095709565</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>1.313553651322886</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>0.001390820584144636</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>0.3796940194714882</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>0.105702364394993</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>0.03616133518776077</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>0.6050069541029208</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>0.06536856745479835</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>0.1655076495132128</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>0.4339360222531294</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>1.363166289232564</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="n">
+        <v>0.9197224975222993</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>1.809712586719524</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>0.6739345887016848</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>0.7641228939544102</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>1.126858275520317</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>0.2348860257680871</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>0.01288404360753215</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>0.04558969276511404</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>3.348853058903221</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>0.003802281368821214</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>0.08365019011406849</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>0.04309252217997472</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>0.100126742712294</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>0.4309252217997466</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>0.191381495564005</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>1.045627376425855</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>1.91128010139417</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>2.713338792345926</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="n">
+        <v>0.01602959309494456</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>0.003699136868064112</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>0.08384710234278669</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>0.2305795314426633</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>0.08877928483353892</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>1.130702836004932</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>0.1676942046855734</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>0.1763255240443897</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>2.041205673998154</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="n">
+        <v>0.01664532650448147</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>0.3124199743918055</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>0.03329065300896294</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>0.09218950064020492</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>0.4583866837387964</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>0.003841229193341844</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>0.0294494238156211</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>0.1344430217669654</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>1.345447489979107</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="n">
+        <v>0.5604790419161676</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>0.1233532934131736</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>0.04670658682634721</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>0.3245508982035927</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>0.1305389221556885</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>0.04550898203592824</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>0.09700598802395199</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.1041916167664672</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>1.539173028483562</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="n">
+        <v>0.01775147928994092</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>0.0923076923076922</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>0.09940828402366875</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>0.08994082840236683</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>0.04023668639053257</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>0.1680473372781066</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.3893491124260355</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>0.1100591715976331</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>1.386791354903838</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="n">
+        <v>0.2604920405209841</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>1.214182344428365</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>1.859623733719248</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>0.1374819102749638</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>0.1418234442836468</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>0.4327062228654124</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>0.1736613603473227</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>0.1099855282199711</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>2.334156488321963</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="n">
+        <v>1.017094017094017</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>0.2271062271062272</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>0.1684981684981686</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>0.3125763125763126</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>0.2075702075702075</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>0.1929181929181929</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.1391941391941391</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>0.1501831501831501</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>1.951430424447309</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="n">
+        <v>0.208955223880597</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>0.2962112514351321</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>0.2927669345579793</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>0.4351320321469576</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>0.1033295063145809</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>0.07692307692307687</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0.08036739380022961</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>0.08610792192881744</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>1.476566604454683</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>0.1469489414694893</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>0.2864259028642591</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>0.2914072229140723</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>0.821917808219178</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>0.4533001245330013</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>0.2204234122042341</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>0.4246575342465753</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>0.2453300124533002</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>1.728173553853761</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="n">
+        <v>0.01384083044982698</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>0.03921568627450989</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>0.02076124567474058</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>0.004613610149942327</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>0.03690888119953861</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>0.03114186851211076</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0.0726643598615917</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>0.3044982698961938</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>1.335997463710597</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="n">
+        <v>0.1437908496732025</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>0.05228758169934644</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>0.1006535947712419</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>0.06143790849673203</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>0.4692810457516341</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>0.2640522875816993</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>0.158169934640523</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>1.327728690725651</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="n">
+        <v>0.05036855036855026</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>0.008599508599508532</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>0.3108108108108107</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>0.02948402948402951</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>0.02334152334152328</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>0.3476658476658476</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>0.05651105651105648</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>0.04422604422604426</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>1.29583485206943</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="n">
+        <v>0.8084449021627189</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>0.5272914521112255</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>0.462409886714727</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>0.2842430484037075</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>0.251287332646756</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>0.008238928939237944</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>0.09783728115345003</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>0.553038105046344</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>2.074280765937939</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="n">
+        <v>0.06682297772567414</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>0.07151230949589693</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>0.2309495896834701</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>0.2743259085580305</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>0.1805392731535755</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>0.5709261430246191</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>0.3962485345838218</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>0.1184056271981242</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>1.58287939997542</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="n">
+        <v>0.1010781671159029</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>0.1226415094339623</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>0.08086253369272245</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>0.34366576819407</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>0.7318059299191375</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>0.02830188679245293</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>0.4150943396226414</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>1.109164420485175</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>1.848661388777263</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="n">
+        <v>0.002706359945872761</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>0.1001353179972937</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>0.3558863328822734</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>0.121786197564276</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>0.07983761840324766</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>0.5209742895805143</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>0.08660351826792967</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>0.3640054127198917</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>1.327728690725651</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="n">
+        <v>0.02605863192182412</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>0.2377850162866451</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>1.178067318132465</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>0.003257328990228014</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>0.1237785016286646</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>0.6156351791530945</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>0.03148751357220414</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>0.02823018458197613</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>2.369594086828876</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="n">
+        <v>0.7643805309734513</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>0.2311946902654867</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>0.03097345132743357</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>0.8561946902654867</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>0.4148230088495575</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>0.1050884955752212</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>0.2743362831858407</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>0.1703539823008851</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>1.982143009819967</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>0.1461538461538461</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>0.1397435897435897</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>0.1282051282051282</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>0.2961538461538462</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>0.1705128205128206</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>0.226923076923077</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>0.3384615384615384</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>0.3141025641025641</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>1.233228428040551</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>0.03841676367869606</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>0.109429569266589</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>0.006984866123399325</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>0.06752037252619325</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>0.1839348079161816</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>0.07334109429569269</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>0.03608847497089629</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>0.3143189755529685</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>1.33363495714347</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="n">
+        <v>0.231283422459893</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>0.3970588235294117</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>0.05481283422459904</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>0.1229946524064172</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>0.1711229946524064</v>
+      </c>
+      <c r="F1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1540" t="n">
+        <v>0.05614973262032086</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>0.02941176470588225</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>0.001336898395721819</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>1.234409681324115</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>0.1639566395663956</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>0.3658536585365855</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>0.08672086720867211</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>0.2642276422764227</v>
+      </c>
+      <c r="F1541" t="n">
+        <v>0.3644986449864498</v>
+      </c>
+      <c r="G1541" t="n">
+        <v>0.09485094850948506</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>0.2791327913279134</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>0.4742547425474255</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>1.285203572517356</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="n">
+        <v>0.1705237515225335</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>0.1668696711327649</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>0.1875761266747868</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>0.2070645554202193</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>0.417783191230207</v>
+      </c>
+      <c r="F1542" t="n">
+        <v>0.1997563946406822</v>
+      </c>
+      <c r="G1542" t="n">
+        <v>0.2423873325213155</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>0.2180267965895251</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>1.374978822068201</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>0.4595375722543353</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>0.3367052023121386</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>0.2124277456647399</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>0.3843930635838151</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>0.26878612716763</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>0.1069364161849711</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>0.2630057803468209</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>0.1560693641618498</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>1.193065816399384</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>0.07816091954022997</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>0.1620689655172414</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>0.3804597701149426</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>0.1689655172413793</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>0.1402298850574712</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>0.07011494252873574</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>0.05517241379310356</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>0.09770114942528729</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>1.41868519356006</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>0.5565006075334142</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>0.1737545565006076</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>0.3487241798298906</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>0.1312272174969624</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>0.002430133657351119</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>0.1130012150668287</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>0.1093560145808019</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>0.1883353584447145</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>1.513185456245159</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>0.306615776081425</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>0.1259541984732824</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>0.3193384223918576</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>0.8396946564885497</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>0.27735368956743</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>0.8587786259541985</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>1.143765903307888</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>0.3180661577608141</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>1.990411782804913</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>0.01684717208182906</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>0.0878459687123947</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>0.3212996389891696</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>0.02767749699157651</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>0.04572803850782181</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>0.3261131167268352</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>0.06859205776173294</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>0.2791817087845969</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>1.301741118487249</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>0.498062015503876</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>0.5203488372093024</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>0.02131782945736438</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>0.3934108527131783</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>0.4699612403100775</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>0.1317829457364341</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>0.1899224806201549</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>0.03972868217054271</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>1.853386401911518</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>0.06896551724137923</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>0.3602853745541024</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>0.08204518430439944</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>0.08442330558858502</v>
+      </c>
+      <c r="F1549" t="n">
+        <v>0.1700356718192628</v>
+      </c>
+      <c r="G1549" t="n">
+        <v>0.1759809750297265</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>0.09512485136741966</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>0.1165279429250892</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>1.351353756396926</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" t="n">
+        <v>0.04125950054288818</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>0.03040173724212814</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>0.05103148751357223</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>0.05103148751357223</v>
+      </c>
+      <c r="F1550" t="n">
+        <v>0.09880564603691644</v>
+      </c>
+      <c r="G1550" t="n">
+        <v>0.09120521172638441</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>0.1194353963083605</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>0.2508143322475569</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>1.360803782665436</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="n">
+        <v>0.1040723981900453</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>0.06674208144796379</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>0.1085972850678734</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>0.0690045248868778</v>
+      </c>
+      <c r="F1551" t="n">
+        <v>0.01018099547511309</v>
+      </c>
+      <c r="G1551" t="n">
+        <v>0.5667420814479638</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>0.2070135746606334</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>0.07013574660633481</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>1.636035797735789</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>0.101364522417154</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>0.2348927875243665</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>0.07309941520467844</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>0.334307992202729</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>0.4483430799220274</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>0.260233918128655</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>1.011695906432748</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>1.256335282651072</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>2.734601351450074</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="n">
+        <v>1.238509316770186</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>0.6037267080745341</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>0.1763975155279502</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>0.6037267080745341</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>0.2782608695652173</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>0.04968944099378891</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>0.5428571428571429</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>0.2037267080745342</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>2.128618416981872</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="n">
+        <v>0.4643734643734643</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>0.9275184275184276</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>1.066339066339066</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>0.171990171990172</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>0.2665847665847665</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>0.2248157248157248</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>0.1117936117936118</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>0.1633906633906634</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>1.986868022954222</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="n">
+        <v>0.565880721220527</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>0.1775312066574202</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>0.1359223300970873</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>0.1664355062413314</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>0.1248266296809986</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>0.2441054091539527</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>0.04715672676837723</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>0.1137309292649098</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>1.33363495714347</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="n">
+        <v>0.01056803170409504</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>0.03830911492734468</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>0.5389696169088507</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>0.07661822985468958</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>0.07001321003963001</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>0.309114927344782</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>0.06737120211360637</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.09247027741083214</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>1.376160075351765</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="n">
+        <v>0.8685857321652064</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>0.07008760951188986</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>0.446808510638298</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>0.09386733416770965</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>0.1301627033792241</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>0.1489361702127661</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>0.1201501877346682</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>0.1214017521902377</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>1.763611152360674</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>0.3656821378340365</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>0.7960618846694796</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>0.03797468354430378</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>0.1758087201125176</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>0.2728551336146272</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>0.03938115330520398</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>0.04641350210970474</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>1.508460443110904</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="n">
+        <v>0.009358288770053402</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>0.1390374331550801</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>0.07486631016042788</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>0.3114973262032086</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>0.1029411764705883</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>0.374331550802139</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>0.3703208556149733</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>0.1764705882352942</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>1.214328375503531</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="n">
+        <v>0.2305516265912306</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>0.3988684582743989</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>0.2814710042432815</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>0.2277227722772277</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>0.4893917963224894</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>0.1329561527581329</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>0.1527581329561527</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>0.239038189533239</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>1.243859707592625</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="n">
+        <v>0.0927977839335179</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>0.2520775623268698</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>0.4265927977839334</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>0.1163434903047091</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>0.4639889196675899</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>0.02631578947368429</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>0.1024930747922437</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>0.2880886426592797</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>1.24858472072688</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>0.1373283395755305</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>0.07116104868913853</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>0.02996254681647947</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>0.08239700374531833</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>0.1148564294631711</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>0.3720349563046192</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>0.2322097378277153</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.1123595505617978</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>1.298197358636558</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="n">
+        <v>0.3109137055837563</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>0.3756345177664975</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>0.2525380710659899</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>0.2157360406091371</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>0.1510152284263959</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>0.07994923857868019</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>0.1269035532994924</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0.01776649746192893</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>1.280478559383101</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>0.04973118279569899</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>0.02016129032258074</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>0.1048387096774193</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>0.1975806451612903</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>0.008064516129032251</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>0.221774193548387</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0.571236559139785</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>0.153225806451613</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>1.38088508848602</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="n">
+        <v>0.07198952879581144</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>0.003926701570680535</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>0.06151832460732987</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>0.2238219895287958</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>0.2630890052356021</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>0.04712041884816753</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>0.2329842931937174</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>0.0981675392670156</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>1.139909418639016</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="n">
+        <v>0.05606258148631027</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>0.1499348109517602</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>0.2059973924380705</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>0.271186440677966</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>0.1186440677966101</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>0.318122555410691</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>0.1812255541069101</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>0.06779661016949157</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>1.194247069682948</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="n">
+        <v>0.3071895424836601</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>0.1934640522875817</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>0.1019607843137256</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>0.3006535947712419</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>0.02745098039215677</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>0.01437908496732021</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>0.5071895424836601</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>0.04967320261437913</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>1.361985035949</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="n">
+        <v>0.1676557863501484</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>0.06528189910979232</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>0.07863501483679536</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>0.09495548961424327</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>0.1557863501483681</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>0.1216617210682494</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>0.03412462908011871</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>0.0741839762611276</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>0.9296463341646686</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="n">
+        <v>0.002577319587628857</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>0.05025773195876293</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>0.1172680412371134</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>0.07216494845360821</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>0.1301546391752577</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>0.006443298969072142</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>0.05025773195876293</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0.07216494845360821</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>1.035959129685406</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="n">
+        <v>0.01685393258426959</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>0.178370786516854</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>0.297752808988764</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>0.09971910112359561</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>0.3623595505617978</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>0.2612359550561798</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>0.0308988764044944</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>0.05758426966292141</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>1.145815685056834</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="n">
+        <v>0.5553745928338762</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>0.3485342019543973</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>0.2019543973941369</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>0.3778501628664495</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>0.1058631921824105</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>0.1530944625407167</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>0.1856677524429968</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0.05700325732899025</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>1.128096885803378</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="n">
+        <v>0.09876543209876543</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>0.0178326474622772</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>0.05075445816186552</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>0.05898491083676261</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>0.1399176954732511</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>0.0576131687242798</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>0.03017832647462271</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>0.1522633744855968</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>0.9922527581935472</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="n">
+        <v>0.2686567164179106</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>0.03256445047489831</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>0.08141112618724566</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>0.2062415196743554</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>0.03934871099050197</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>0.08548168249660781</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0.03392130257801895</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>0.1329715061058345</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>1.104471820132103</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="n">
+        <v>0.1085714285714285</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>0.09285714285714275</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>0.001428571428571335</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>0.02142857142857135</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>0.07285714285714295</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>0.008571428571428674</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0.07714285714285718</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>0.950908893268816</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="n">
+        <v>0.1044267877412033</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>0.1555051078320091</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>0.004540295119182858</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>0.08172531214528944</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>0.006810442678774065</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>0.06356413166855845</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0.01135073779795692</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>0.05107832009080582</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>1.202515842667894</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="n">
+        <v>0.07242339832869082</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>0.00139275766016711</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>0.2325905292479109</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>0.107242339832869</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>0.05988857938718661</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>0.0696378830083566</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>0.08495821727019504</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>0.08077994428969348</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>1.045409155953916</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>0.002998500749625155</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>0.2263868065967016</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>0.2233883058470765</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>0.1574212893553224</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>0.2623688155922039</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>0.1394302848575713</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>0.1154422788605698</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>0.4062968515742129</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>1.108015579982794</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="n">
+        <v>0.004678362573099504</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>0.02456140350877201</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>0.2596491228070175</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>0.2128654970760233</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>0.3181286549707603</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>0.007017543859649145</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>0.1918128654970761</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0.3380116959064328</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>1.351353756396926</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>0.02652519893899208</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>0.07294429708222805</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>0.06763925729442977</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>0.1710875331564987</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>0.06896551724137923</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>0.1326259946949602</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>0.1684350132625996</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>0.08222811671087538</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>1.043046649386788</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>0.01872074882995323</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>0.1014040561622465</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>0.06864274570982842</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>0.03900156006240252</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>0.09360374414976591</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>0.1466458658346335</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>0.007800312012480548</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>0.1060842433697349</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>0.8682211634193537</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>0.1171428571428572</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>0.1185714285714285</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>0.06857142857142851</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>0.1071428571428572</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>0.1385714285714286</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>0.06714285714285717</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>0.1271428571428572</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>0.9426401202838698</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>0.049792531120332</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>0.005532503457814641</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>0.02766251728907321</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>0.0636237897648686</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>0.02074688796680491</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>0.1424619640387275</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>0.04287690179806369</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0.01659751037344392</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>0.9757152122236546</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>0.07402760351317439</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>0.01129234629861986</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>0.08782936010037634</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>0.05269761606022594</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>0.05395232120451698</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>0.06900878293600998</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>0.09033877038895866</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>0.03513174404015063</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>1.026509103416896</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>0.07683615819209044</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>0.06892655367231648</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>0.1265536723163843</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>0.05310734463276834</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>0.03389830508474567</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>0.05649717514124286</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>0.03389830508474567</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>0.004519774011299438</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>1.177709523713055</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="n">
+        <v>0.3557046979865772</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>0.3624161073825503</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>0.238255033557047</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>0.3825503355704698</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>0.3053691275167785</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>0.04865771812080544</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>0.3087248322147651</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>0.1023489932885906</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>0.9733527056565272</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="n">
+        <v>0.06480304955527316</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>0.1753494282083863</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>0.1321473951715375</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>0.09783989834815765</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>0.06480304955527316</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>0.09275730622617528</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>0.04447268106734437</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>0.05463786531130888</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>1.092659287296466</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>0.1717325227963526</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>0.04103343465045595</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>0.3358662613981762</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>0.2446808510638299</v>
+      </c>
+      <c r="F1587" t="n">
+        <v>0.04559270516717318</v>
+      </c>
+      <c r="G1587" t="n">
+        <v>0.2249240121580547</v>
+      </c>
+      <c r="H1587" t="n">
+        <v>0.07446808510638303</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>1.038321636252533</v>
+      </c>
+      <c r="K1587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="n">
+        <v>0.1571238348868176</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>0.1584553928095873</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>0.05193075898801602</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>0.08788282290279636</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>0.1051930758988016</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>0.09720372836218383</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>0.08655126498002663</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>0.06391478029294273</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>1.02769035670046</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="n">
+        <v>0.2574931880108993</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>0.2193460490463215</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>0.09536784741144411</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>0.2370572207084469</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>0.1702997275204359</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>0.03814713896457755</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>0.2193460490463215</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>0.1267029972752043</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>1.090296780729338</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="n">
+        <v>0.008941877794336861</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>0.02980625931445613</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>0.03576751117734722</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>0.03874813710879277</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>0.08494783904619974</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>0.113263785394933</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>0.1698956780923995</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>0.1549925484351713</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>0.9272838275975411</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="n">
+        <v>0.04461538461538472</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>0.09846153846153838</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>0.09692307692307689</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>0.05384615384615388</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>0.09846153846153838</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>0.4815384615384615</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>0.2061538461538461</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>0.1492307692307693</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>1.137546912071888</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="n">
+        <v>0.158682634730539</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>0.3038922155688624</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>0.2739520958083832</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>0.1946107784431137</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>0.2634730538922156</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>0.2574850299401197</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>0.2754491017964071</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>0.0793413173652695</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>1.028871609984023</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="n">
+        <v>0.003500583430571691</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>0.1353558926487748</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>0.04667444574095692</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>0.06534422403733964</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>0.1143523920653442</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>0.02450408401400228</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>0.1166861143523921</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>0.09684947491248552</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>1.149359444907526</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="n">
+        <v>0.02781289506953222</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>0.06321112515802785</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>0.09355246523388105</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>0.1340075853350189</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>0.04551201011378003</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>0.07458912768647274</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>0.1580278128950696</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>0.1529709228824274</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>1.082028007744392</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="n">
+        <v>0.1343065693430656</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>0.05985401459854023</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>0.110948905109489</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>0.02919708029197077</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>0.1547445255474453</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>0.2087591240875912</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>0.07007299270072997</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>0.1459854014598541</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>0.9780777187907822</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="n">
+        <v>0.002522068095838659</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>0.0441361916771752</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>0.09205548549810838</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>0.05296343001261028</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>0.04918032786885251</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>0.0781841109709962</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>0.03152585119798235</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>0.01008827238335441</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>1.022965343566204</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="n">
+        <v>0.1094470046082949</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>0.01497695852534564</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>0.003456221198156584</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>0.06912442396313367</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>0.03341013824884786</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>0.009216589861751112</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>0.08640552995391704</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>0.06451612903225801</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>1.137546912071888</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="n">
+        <v>0.06184210526315792</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>0.06052631578947376</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>0.08421052631578951</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>0.1157894736842104</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>0.09210526315789469</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>0.05789473684210522</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>0.1565789473684212</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>0.1039473684210526</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>1.038321636252533</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="n">
+        <v>0.2571819425444597</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>0.1901504787961696</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>0.1928864569083448</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>0.08344733242134073</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>0.04651162790697683</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>0.05745554035567713</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>0.07660738714090298</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>0.08207934336525313</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>1.085571767595083</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="n">
+        <v>0.05669481302774426</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>0.06875753920385996</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>0.02895054282267795</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>0.04704463208685161</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>0.07599517490952956</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>0.08685162846803385</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>0.07117008443908324</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>1.064309208490936</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>0.09891808346213282</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>0.1035548686244203</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>0.09582689335394123</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>0.1236476043276662</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>0.03091190108191655</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>0.1298299845440494</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>0.1916537867078825</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>0.09582689335394123</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>0.9107462816276486</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="n">
+        <v>0.1193666260657735</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>0.04750304506699154</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>0.2618757612667479</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>0.164433617539586</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>0.1327649208282582</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>0.4665042630937881</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>0.4056029232643119</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>0.3300852618757613</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>1.422228953410751</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>0.2051569506726458</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>0.1356502242152466</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>0.2488789237668161</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>0.5571748878923768</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>0.3060538116591929</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>0.2791479820627802</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>0.7006726457399104</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>0.3026905829596414</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>1.791961231166204</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>0.1875881523272214</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>0.3173483779971791</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>0.307475317348378</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>0.3032440056417489</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>0.311706629055007</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>0.1466854724964739</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>0.03102961918194636</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>0.08321579689703817</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>1.103290566848539</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>0.1657681940700808</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>0.2075471698113207</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>0.1172506738544474</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>0.225067385444744</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>0.307277628032345</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>0.1819407008086253</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>0.2008086253369272</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>0.2964959568733154</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>1.145815685056834</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>0.1030042918454936</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>0.1931330472103003</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>0.1788268955650929</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>0.2875536480686696</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>0.3705293276108728</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>0.08011444921316158</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>0.150214592274678</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>0.2131616595135908</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>1.131640645654069</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="n">
+        <v>0.1812796208530805</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>0.0781990521327014</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>0.04146919431279628</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>0.2511848341232228</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>0.07464454976303325</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>0.1729857819905214</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>0.05924170616113744</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>0.001184834123222789</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>1.247403467443316</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="n">
+        <v>0.05099150141643061</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>0.1869688385269122</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>0.1912181303116147</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>0.07790368271954673</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>0.1430594900849858</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>0.04957507082152968</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>0.1359773371104815</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>0.08923512747875351</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>0.9934340114771109</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="n">
+        <v>0.0175202156334231</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>0.05256064690026951</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>0.06469002695417791</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>0.03638814016172498</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>0.02695417789757415</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>0.02021563342318067</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>0.002695417789757348</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>0.004043126684636134</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>0.9331900940153598</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="n">
+        <v>0.1853932584269662</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>0.07584269662921339</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>0.0280898876404494</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>0.07303370786516861</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>0.0786516853932584</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>0.06882022471910121</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>0.0660112359550562</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>0.07162921348314599</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>0.9969777713278022</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="n">
+        <v>0.09809264305177101</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>0.08583106267029983</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>0.09128065395095364</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>0.02997275204359684</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>0.02316076294277924</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>0.1335149863760219</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>0.002724795640326905</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>0.1049046321525886</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>0.9828027319250372</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>0.02653631284916202</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>0.07122905027932958</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>0.2430167597765363</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>0.1592178770949721</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>0.09636871508379885</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>0.9385474860335195</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>0.2723463687150838</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>0.1829608938547487</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>1.63957955758648</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="n">
+        <v>0.1394169835234473</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>0.1178707224334601</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>0.09505703422053235</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>0.1774397972116604</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>0.1254752851711027</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>0.06463878326996197</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>0.1596958174904943</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>0.0785804816223068</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>1.097384300430721</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="n">
+        <v>0.06593406593406592</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>0.01923076923076916</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>0.1208791208791209</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>0.1112637362637363</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>0.05494505494505497</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>0.3255494505494505</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>0.1524725274725274</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>0.1826923076923077</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>1.139909418639016</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>0.10546875</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>0.08203125</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>0.0546875</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>0.1888020833333333</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>0.1184895833333333</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>0.09505208333333326</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>0.1653645833333333</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>0.1393229166666667</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>1.078484247893701</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>0.8632734530938124</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>0.3832335329341316</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>0.8403193612774451</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>0.3692614770459082</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>0.01796407185628746</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>0.2884231536926147</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>0.5179640718562875</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>0.02495009980039931</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>2.205399880413515</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>0.1186440677966101</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>0.0547588005215125</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>0.1616688396349413</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>0.1929595827900912</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>0.2255541069100391</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>0.02346805736636237</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>0.2946544980443286</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>0.3455019556714471</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>1.219053388637787</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>0.219548872180451</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>0.004511278195488799</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>0.01503759398496252</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>0.1699248120300751</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>0.05714285714285716</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>0.09323308270676689</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>0.069172932330827</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>0.05263157894736836</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>0.9579964129701986</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>0.05078597339782354</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>0.03869407496977018</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>0.03022974607013307</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>0.08464328899637241</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>0.05320435308343407</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>0.08101571946795638</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>0.1027811366384523</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>0.06166868198307141</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>1.077302994610137</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>0.1467889908256881</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>0.1271297509829621</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>0.08912188728702497</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>0.02621231979030147</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>0.01441677588466583</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>0.1048492791612057</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>0.05504587155963292</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>0.1677588466579292</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>1.052496675655298</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="n">
+        <v>0.06675938803894299</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>0.2267037552155773</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>0.07232267037552154</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>0.0931849791376913</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>0.2531293463143254</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>0.0486787204450625</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>0.09735744089012521</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>0.1710709318497914</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>1.064309208490936</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="n">
+        <v>0.1100917431192661</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>0.05111402359108785</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>0.08387942332896459</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>0.02228047182175619</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>0.006553079947575258</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>0.05373525557011805</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>0.003931847968545288</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>0.005242463958060384</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>1.000521531178493</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="n">
+        <v>0.16796875</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>0.09244791666666674</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>0.1106770833333333</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>0.04296875</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>0.01302083333333326</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>0.09244791666666674</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>0.046875</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>0.02864583333333326</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>1.059584195356681</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="n">
+        <v>0.07069219440353458</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>0.09720176730486019</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>0.2371134020618557</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>0.2503681885125184</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>0.03240058910162014</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>0.3402061855670102</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>0.2665684830633284</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>0.02061855670103085</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>1.074940488043009</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>0.0811170212765957</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>0.04521276595744683</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>0.007978723404255428</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>0.1928191489361701</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>0.1462765957446808</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>0.08909574468085113</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>0.1622340425531914</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>1.059584195356681</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="n">
+        <v>0.07259073842302888</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>0.1101376720901126</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>0.1451814768460575</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>0.08886107634543183</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>0.08385481852315402</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>0.03879849812265324</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>0.2315394242803503</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>0.07259073842302888</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>1.162353231026727</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>0.1605442176870748</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>0.1455782312925169</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>0.02448979591836742</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>0.06802721088435382</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>0.01496598639455793</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>0.0122448979591836</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>0.06530612244897949</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>1.007609050879876</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="n">
+        <v>0.07169344870210126</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>0.05933250927070466</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>0.02595797280593315</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>0.05315203955500625</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>0.02224969097651419</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>0.01483312731767605</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>0.0284301606922126</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>0.05191594561186652</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>1.024146596849768</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="n">
+        <v>0.1020408163265305</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>0.04209183673469385</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>0.09566326530612246</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>0.03188775510204089</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>0.09948979591836737</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>0.0535714285714286</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>0.03826530612244894</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>1.020602836999077</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="n">
+        <v>0.1624040920716112</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>0.292838874680307</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>0.2122762148337596</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>0.1278772378516624</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>0.1074168797953965</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>0.09335038363171355</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>0.07544757033248084</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>0.05242966751918154</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>1.194247069682948</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="n">
+        <v>0.1175693527080581</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>0.05680317040951133</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>0.01981505944517825</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>0.1070013210039631</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>0.05416116248348746</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>0.005284015852047519</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>0.06340819022457067</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>0.005284015852047519</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>0.9993402778949296</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="n">
+        <v>0.004944375772558685</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>0.008652657601977642</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>0.0395550061804697</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>0.06551297898640307</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>0.08281829419035858</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>0.002472187886279453</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>0.07416563658838071</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>0.1186650185414091</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>1.069034221625191</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>0.1285140562248996</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>0.1472556894243642</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>0.4176706827309238</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>0.1646586345381527</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>0.08299866131191425</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>1.144578313253012</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>0.3453815261044177</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>0.05890227576974572</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>1.892367760269122</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="n">
+        <v>0.06392045454545459</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>0.03409090909090917</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>0.04119318181818188</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>0.05397727272727271</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>0.05113636363636354</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>0.04261363636363646</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>0.03551136363636354</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>0.007102272727272707</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>0.8847587093892462</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="n">
+        <v>0.002496878901373289</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>0.02871410736579283</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>0.01872659176029967</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>0.04119850187265928</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>0.07240948813982517</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>0.009987515605493158</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>0.04619225967540563</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>0.07740324594257175</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>1.019421583715513</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>0.1367013372956909</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>0.1144130757800892</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>0.08320950965824658</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>0.03120356612184239</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>0.1649331352154533</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>0.1069836552748886</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>0.1575037147102527</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>0.3016344725111442</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>1.034777876401842</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="n">
+        <v>0.1616766467065869</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>0.1511976047904191</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>0.2065868263473054</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>0.0553892215568863</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>0.1197604790419162</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>0.06736526946107779</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>0.04640718562874246</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>0.1556886227544909</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>0.9520901465523798</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>0.02719406674907288</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>0.01854140914709523</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>0.05686032138442521</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>0.01977750309023496</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>0.03337453646477129</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>0.03213844252163156</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>0.03337453646477129</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>0.08281829419035858</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>1.034777876401842</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="n">
+        <v>0.2383561643835617</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>0.02191780821917799</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>0.07260273972602738</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>0.09178082191780823</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>0.1506849315068493</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>0.1287671232876713</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>0.04657534246575334</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>0.0493150684931507</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>1.067852968341627</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>0.06827880512091045</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>0.07965860597439556</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>0.0867709815078237</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>0.1394025604551921</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>0.06685633001422464</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>0.07681365576102417</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>0.2645803698435278</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>1.050134169088171</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="n">
+        <v>0.2020348837209303</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>0.132267441860465</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>0.09883720930232553</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>0.1061046511627908</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>0.09447674418604657</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>0.08720930232558133</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>0.07994186046511631</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>1.020602836999077</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>0.1111111111111112</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>0.1345029239766082</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>0.04970760233918137</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>0.1564327485380117</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>0.1988304093567252</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>0.1593567251461989</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>0.1710526315789473</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>0.2660818713450293</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>1.022965343566204</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="n">
+        <v>0.1939393939393939</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>0.1121212121212121</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>0.0060606060606061</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>0.1787878787878787</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>0.1636363636363636</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>0.1121212121212121</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>0.0984848484848484</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>0.01363636363636367</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>0.9308275874482324</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="n">
+        <v>0.316778523489933</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>0.2281879194630871</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>0.142281879194631</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>0.2335570469798658</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>0.1503355704697986</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>0.006711409395973256</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>0.08590604026845639</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>0.1664429530201341</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>1.158809471176035</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="n">
+        <v>0.2099596231493943</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>0.142664872139973</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>0.1978465679676986</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>0.06998654104979818</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>0.05248990578734869</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0.2799461641991925</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>0.1628532974427994</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>0.142664872139973</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>1.123371872669123</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>0.04653937947494025</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>0.05608591885441538</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>0.005966587112171906</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>0.05369928400954649</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>0.05131264916467781</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>0.009546539379474916</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>0.001193317422434337</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>0.009546539379474916</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>1.045409155953916</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="n">
+        <v>0.1253602305475505</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>0.260806916426513</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>0.1945244956772334</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>0.1181556195965419</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>0.2492795389048992</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>0.0360230547550433</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0.0749279538904899</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>0.04610951008645525</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>1.033596623118278</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>0.00512820512820511</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>0.04487179487179493</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>0.01794871794871788</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>0.03205128205128216</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.02307692307692299</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.007692307692307665</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0.0410256410256411</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>0.05897435897435899</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>0.9757152122236546</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
